--- a/Phase 3/Phase 3-Team Planning.xlsx
+++ b/Phase 3/Phase 3-Team Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YZN\Desktop\uOttawa_Teaching\CSI4142\Project\Phases_3+4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uOttawa\CSI\4142\CSI4142_Group15\Phase 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A2087-2FF6-4650-902C-F2A45B51A59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B612DF0F-FBB8-45BE-B221-46C45507FE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Deliverable checklist</t>
   </si>
@@ -113,6 +103,18 @@
   </si>
   <si>
     <t>CSI4142 - Project 2023</t>
+  </si>
+  <si>
+    <t>Lixiong Wei</t>
+  </si>
+  <si>
+    <t>Zhiyuan Lin</t>
+  </si>
+  <si>
+    <t>two days</t>
+  </si>
+  <si>
+    <t>One and half day</t>
   </si>
 </sst>
 </file>
@@ -199,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -221,6 +223,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,28 +545,28 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -584,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -599,95 +604,175 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D10" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D11" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D12" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D13" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D14" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45383</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45382</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -696,60 +781,70 @@
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -757,7 +852,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>

--- a/Phase 3/Phase 3-Team Planning.xlsx
+++ b/Phase 3/Phase 3-Team Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uOttawa\CSI\4142\CSI4142_Group15\Phase 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B612DF0F-FBB8-45BE-B221-46C45507FE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804EC1C-847C-41D4-9BD5-B24A7F66A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Deliverable checklist</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>One and half day</t>
+  </si>
+  <si>
+    <t>Half day</t>
+  </si>
+  <si>
+    <t>One days</t>
+  </si>
+  <si>
+    <t>One day</t>
+  </si>
+  <si>
+    <t>Two and half days</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -216,6 +228,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -225,9 +240,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +558,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,16 +580,16 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -585,24 +598,24 @@
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -611,14 +624,14 @@
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45382</v>
+      <c r="C8" s="6">
+        <v>45383</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45383</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
@@ -632,17 +645,17 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="6">
+        <v>45383</v>
+      </c>
+      <c r="D9" s="6">
         <v>45382</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -653,17 +666,17 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="6">
+        <v>45383</v>
+      </c>
+      <c r="D10" s="6">
         <v>45382</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -674,17 +687,17 @@
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="6">
+        <v>45383</v>
+      </c>
+      <c r="D11" s="6">
         <v>45382</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -695,17 +708,17 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D12" s="9">
-        <v>45382</v>
+      <c r="C12" s="6">
+        <v>45384</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45383</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -716,17 +729,17 @@
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D13" s="9">
-        <v>45382</v>
+      <c r="C13" s="6">
+        <v>45384</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45383</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -737,17 +750,17 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D14" s="9">
-        <v>45382</v>
+      <c r="C14" s="6">
+        <v>45384</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45383</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -758,17 +771,17 @@
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9">
-        <v>45383</v>
-      </c>
-      <c r="D15" s="9">
-        <v>45382</v>
+      <c r="C15" s="6">
+        <v>45384</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45383</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -801,10 +814,18 @@
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="6">
+        <v>45383</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45384</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -814,10 +835,18 @@
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="6">
+        <v>45383</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45384</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -827,10 +856,18 @@
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="10">
+        <v>45384</v>
+      </c>
+      <c r="D20" s="10">
+        <v>45385</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -839,10 +876,18 @@
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="10">
+        <v>45385</v>
+      </c>
+      <c r="D21" s="10">
+        <v>45385</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>

--- a/Phase 3/Phase 3-Team Planning.xlsx
+++ b/Phase 3/Phase 3-Team Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uOttawa\CSI\4142\CSI4142_Group15\Phase 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804EC1C-847C-41D4-9BD5-B24A7F66A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BB0FD-FA3C-4327-8EBD-9EF0E2806874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Deliverable checklist</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Half day</t>
-  </si>
-  <si>
-    <t>One days</t>
   </si>
   <si>
     <t>One day</t>
@@ -231,6 +228,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -240,7 +238,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +555,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,16 +577,16 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -598,24 +595,24 @@
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -631,7 +628,7 @@
         <v>45383</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
@@ -655,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -676,7 +673,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -697,7 +694,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -856,10 +853,10 @@
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>45384</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>45385</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -876,10 +873,10 @@
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>45385</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>45385</v>
       </c>
       <c r="E21" s="3" t="s">
